--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -3321,34 +3321,34 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>21322</v>
+        <v>21313</v>
       </c>
       <c r="C59">
-        <v>21322</v>
+        <v>21313</v>
       </c>
       <c r="D59">
-        <v>15318</v>
+        <v>15314</v>
       </c>
       <c r="E59">
-        <v>6003</v>
+        <v>5999</v>
       </c>
       <c r="F59">
         <v>2587</v>
       </c>
       <c r="G59">
-        <v>6374</v>
+        <v>6383</v>
       </c>
       <c r="H59">
-        <v>8892</v>
+        <v>8886</v>
       </c>
       <c r="I59">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="J59">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="K59">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L59">
         <v>390</v>

--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -3321,16 +3321,16 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>21313</v>
+        <v>21309</v>
       </c>
       <c r="C59">
-        <v>21313</v>
+        <v>21309</v>
       </c>
       <c r="D59">
-        <v>15314</v>
+        <v>15313</v>
       </c>
       <c r="E59">
-        <v>5999</v>
+        <v>5996</v>
       </c>
       <c r="F59">
         <v>2587</v>
@@ -3339,13 +3339,13 @@
         <v>6383</v>
       </c>
       <c r="H59">
-        <v>8886</v>
+        <v>8874</v>
       </c>
       <c r="I59">
-        <v>1934</v>
+        <v>1944</v>
       </c>
       <c r="J59">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="K59">
         <v>209</v>

--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3345,7 +3348,7 @@
         <v>1944</v>
       </c>
       <c r="J59">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K59">
         <v>209</v>
@@ -3360,6 +3363,53 @@
         <v>0</v>
       </c>
       <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>20278</v>
+      </c>
+      <c r="C60">
+        <v>20278</v>
+      </c>
+      <c r="D60">
+        <v>13728</v>
+      </c>
+      <c r="E60">
+        <v>6550</v>
+      </c>
+      <c r="F60">
+        <v>2225</v>
+      </c>
+      <c r="G60">
+        <v>5494</v>
+      </c>
+      <c r="H60">
+        <v>7969</v>
+      </c>
+      <c r="I60">
+        <v>1986</v>
+      </c>
+      <c r="J60">
+        <v>1104</v>
+      </c>
+      <c r="K60">
+        <v>390</v>
+      </c>
+      <c r="L60">
+        <v>1110</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <v>0</v>
       </c>
     </row>
